--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E0CE45F-1BE7-CD44-ABC9-AA81278E894B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139F8631-5A28-444E-AB90-BC25AD5F829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="vcc_distributor" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/vcc_distributor/vcc_distributor.csv" decimal="," thousands="." tab="0" semicolon="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="vcc_distributor" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/vcc_distributor/vcc_distributor.csv" decimal="," thousands="." tab="0" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Stützkondensator 5V</t>
   </si>
   <si>
-    <t>2 x Stützkondensator 5V, 1 x Stützkondensator 24V, 2x Hochpassfilter 24V</t>
-  </si>
-  <si>
     <t>R9,R8</t>
   </si>
   <si>
@@ -281,13 +278,25 @@
   </si>
   <si>
     <t>I2C Pull-Up</t>
+  </si>
+  <si>
+    <t>C12,C13</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>Stützkondensator 24 V</t>
+  </si>
+  <si>
+    <t>2 x Stützkondensator 5V, 1 x Stützkondensator 24V, 2x Hochpassfilter 24V (niedrige ESR)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +427,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -764,8 +780,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -825,7 +843,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="vcc_distributor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="vcc_distributor" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,11 +1142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1187,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1201,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1213,7 +1231,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1241,7 +1259,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1255,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1267,7 +1285,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1278,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1295,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1309,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1332,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1361,21 +1379,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1383,70 +1404,67 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1455,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
@@ -1463,61 +1481,81 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1527,10 +1565,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1614,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139F8631-5A28-444E-AB90-BC25AD5F829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B9E94-2042-1747-9146-013B549FE016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="9600" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>91k</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2 x Stützkondensator 5V, 1 x Stützkondensator 24V, 2x Hochpassfilter 24V (niedrige ESR)</t>
+  </si>
+  <si>
+    <t>180k</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,10 +1174,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1205,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1219,19 +1219,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1259,13 +1259,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1273,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1285,7 +1285,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1310,16 +1310,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1339,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1384,19 +1384,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1453,10 +1453,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1476,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1484,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1493,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1504,16 +1504,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1521,22 +1521,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
         <v>74</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1544,19 +1544,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1585,25 +1585,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1611,19 +1611,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1631,19 +1631,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1669,25 +1669,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1695,16 +1695,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,16 +1712,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B9E94-2042-1747-9146-013B549FE016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D8378-3120-C844-9D9B-F1A1F878960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="9600" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,19 @@
   <definedNames>
     <definedName name="vcc_distributor" localSheetId="1">'vcc distributor'!$A$1:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -44,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -103,9 +115,6 @@
     <t>SOT-23-5_HandSoldering</t>
   </si>
   <si>
-    <t>ADA4622-1</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -290,13 +299,31 @@
   </si>
   <si>
     <t>180k</t>
+  </si>
+  <si>
+    <t>Basket</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>TL081HIDBVR</t>
+  </si>
+  <si>
+    <t>LTC2631CTS8-HZ12</t>
+  </si>
+  <si>
+    <t>20x</t>
+  </si>
+  <si>
+    <t>Quantity x7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +464,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -780,10 +813,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1143,21 +1183,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="79.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,163 +1213,225 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>(D2*7)*1.2</f>
+        <v>16.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">(D3*7)*1.2</f>
+        <v>8.4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1335,14 +1439,21 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1350,24 +1461,31 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1375,31 +1493,45 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1412,11 +1544,18 @@
       <c r="D14">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+      <c r="F14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1429,14 +1568,21 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1449,17 +1595,21 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1472,19 +1622,26 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1492,72 +1649,113 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>30</v>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>74</v>
       </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -1566,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,67 +1781,73 @@
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1669,25 +1873,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1695,16 +1899,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,16 +1916,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D8378-3120-C844-9D9B-F1A1F878960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB615B-382E-9948-B397-0F3300C5BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
@@ -310,13 +310,13 @@
     <t>TL081HIDBVR</t>
   </si>
   <si>
-    <t>LTC2631CTS8-HZ12</t>
-  </si>
-  <si>
     <t>20x</t>
   </si>
   <si>
     <t>Quantity x7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>8.4</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1766,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB615B-382E-9948-B397-0F3300C5BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FCA05-01D3-9644-83F6-F594D6A5EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
-    <sheet name="vcc distributor" sheetId="2" r:id="rId2"/>
-    <sheet name="mount" sheetId="3" r:id="rId3"/>
+    <sheet name="speaker_v2" sheetId="4" r:id="rId2"/>
+    <sheet name="vcc distributor" sheetId="2" r:id="rId3"/>
+    <sheet name="mount" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="vcc_distributor" localSheetId="1">'vcc distributor'!$A$1:$H$3</definedName>
+    <definedName name="vcc_distributor" localSheetId="2">'vcc distributor'!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -317,13 +318,121 @@
   </si>
   <si>
     <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>TP3,TP2,TP1</t>
+  </si>
+  <si>
+    <t>TestPoint_Keystone_5000-5004_Miniature</t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>J5,J1,J6,J2,J3,J4</t>
+  </si>
+  <si>
+    <t>SPI_Conn_SMD</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical_SMD_Pin1Left</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>R8,R10,R7,R11,R9</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>BC857</t>
+  </si>
+  <si>
+    <t>C4,C6,C15,C11</t>
+  </si>
+  <si>
+    <t>ADA4622-1</t>
+  </si>
+  <si>
+    <t>H1,H2,H4,H3</t>
+  </si>
+  <si>
+    <t>MountingHole_2.2mm_M2_DIN965_Pad_TopBottom</t>
+  </si>
+  <si>
+    <t>MountingHole_Pad</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>1.5nF</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>BC847</t>
+  </si>
+  <si>
+    <t>SOT-23-8_Handsoldering</t>
+  </si>
+  <si>
+    <t>LTC2640-Z</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>? 16</t>
+  </si>
+  <si>
+    <t>? 8</t>
+  </si>
+  <si>
+    <t>x (Läßer)</t>
+  </si>
+  <si>
+    <t>? 42</t>
+  </si>
+  <si>
+    <t>C2,C14,C5, C3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,6 +579,39 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -813,7 +955,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -824,6 +966,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1185,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1759,10 +1915,704 @@
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49091B3E-91A0-044A-8E38-686DA06B527B}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="70.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>(D2*7)*1.2</f>
+        <v>8.4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E27" si="0">(D3*7)*1.2</f>
+        <v>8.4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1855,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FCA05-01D3-9644-83F6-F594D6A5EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1EC440-3399-6244-872E-0C6F4C100C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>C2,C14,C5, C3</t>
+  </si>
+  <si>
+    <t>x 16</t>
+  </si>
+  <si>
+    <t>x 10</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1930,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2004,6 +2010,9 @@
       <c r="F3" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2079,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>118</v>
@@ -2350,7 +2359,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>119</v>
@@ -2400,9 +2409,7 @@
       <c r="F19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
         <v>118</v>
       </c>
@@ -2600,9 +2607,7 @@
       <c r="F27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
         <v>119</v>
       </c>

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1EC440-3399-6244-872E-0C6F4C100C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CC7BF3-99C0-B540-BC64-5716521E0CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>x 10</t>
+  </si>
+  <si>
+    <t>On Supply</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1927,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49091B3E-91A0-044A-8E38-686DA06B527B}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,7 +1943,7 @@
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +1968,11 @@
       <c r="H1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1989,8 +1995,11 @@
       <c r="H2" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2014,8 +2023,11 @@
         <v>82</v>
       </c>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2039,8 +2051,11 @@
         <v>82</v>
       </c>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2066,8 +2081,9 @@
       <c r="H5" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2093,8 +2109,11 @@
       <c r="H6" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2142,7 +2161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2166,7 +2185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2190,7 +2209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2216,8 +2235,11 @@
       <c r="H11" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2241,7 +2263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2265,7 +2287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2287,7 +2309,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2313,8 +2335,11 @@
       <c r="H15" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2338,7 +2363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2364,8 +2389,11 @@
       <c r="H17" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2388,8 +2416,11 @@
       <c r="H18" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2413,8 +2444,11 @@
       <c r="H19" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2441,7 +2475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2465,7 +2499,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2488,8 +2522,11 @@
       <c r="H22" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2513,8 +2550,11 @@
         <v>82</v>
       </c>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2538,7 +2578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2562,7 +2602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2586,8 +2626,11 @@
         <v>82</v>
       </c>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2610,6 +2653,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
         <v>119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2668,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/hardware/pcb/BOM.xlsx
+++ b/hardware/pcb/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Documents/Studium/02 Vorlesungen/Semester 06/BA/Umsetzung/hardware/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CC7BF3-99C0-B540-BC64-5716521E0CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45329BD1-2A55-7145-9088-A83848CAE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speaker" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49091B3E-91A0-044A-8E38-686DA06B527B}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
